--- a/examples/openFAST_config.xlsx
+++ b/examples/openFAST_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ChineseOpenFastTutorial\AMPoWS\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441350D2-0190-41A7-A17E-8E720F5BB7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592B58C7-B835-4A5C-B25D-E335773735B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -320,7 +320,7 @@
     <t>[401:1:406]</t>
   </si>
   <si>
-    <t>./OutListParameters.xls</t>
+    <t>./OutListParameters.xlsx</t>
   </si>
 </sst>
 </file>

--- a/examples/openFAST_config.xlsx
+++ b/examples/openFAST_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ChineseOpenFastTutorial\AMPoWS\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592B58C7-B835-4A5C-B25D-E335773735B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309A675A-E795-4B83-AF23-ACA9BDF7C906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/examples/openFAST_config.xlsx
+++ b/examples/openFAST_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ChineseOpenFastTutorial\AMPoWS\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309A675A-E795-4B83-AF23-ACA9BDF7C906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1815EC4B-F882-448D-860D-3CF4FD15111C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="110">
   <si>
     <t>Location</t>
   </si>
@@ -321,6 +321,42 @@
   </si>
   <si>
     <t>./OutListParameters.xlsx</t>
+  </si>
+  <si>
+    <t>[401:1:408]</t>
+  </si>
+  <si>
+    <t>[601:1:608]</t>
+  </si>
+  <si>
+    <t>[801:1:808]</t>
+  </si>
+  <si>
+    <t>[1001:1:1008]</t>
+  </si>
+  <si>
+    <t>[1201:1:1208]</t>
+  </si>
+  <si>
+    <t>[1401:1:1408]</t>
+  </si>
+  <si>
+    <t>[1601:1:1608]</t>
+  </si>
+  <si>
+    <t>[1801:1:1808]</t>
+  </si>
+  <si>
+    <t>[2001:1:2008]</t>
+  </si>
+  <si>
+    <t>[2201:1:2208]</t>
+  </si>
+  <si>
+    <t>[2401:1:2408]</t>
+  </si>
+  <si>
+    <t>512</t>
   </si>
 </sst>
 </file>
@@ -797,7 +833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -946,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="14.25"/>
@@ -1036,10 +1072,10 @@
         <v>45</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1059,10 +1095,10 @@
         <v>45</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1082,10 +1118,10 @@
         <v>45</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1105,10 +1141,10 @@
         <v>45</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1128,10 +1164,10 @@
         <v>45</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1151,10 +1187,10 @@
         <v>45</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1174,10 +1210,10 @@
         <v>45</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1197,10 +1233,10 @@
         <v>45</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1220,10 +1256,10 @@
         <v>45</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1243,10 +1279,10 @@
         <v>45</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1266,10 +1302,10 @@
         <v>45</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/examples/openFAST_config.xlsx
+++ b/examples/openFAST_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ChineseOpenFastTutorial\AMPoWS\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1815EC4B-F882-448D-860D-3CF4FD15111C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B201741B-3D7A-477E-91AF-817CA3C1BEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="109">
   <si>
     <t>Location</t>
   </si>
@@ -323,40 +323,37 @@
     <t>./OutListParameters.xlsx</t>
   </si>
   <si>
-    <t>[401:1:408]</t>
-  </si>
-  <si>
-    <t>[601:1:608]</t>
-  </si>
-  <si>
-    <t>[801:1:808]</t>
-  </si>
-  <si>
-    <t>[1001:1:1008]</t>
-  </si>
-  <si>
-    <t>[1201:1:1208]</t>
-  </si>
-  <si>
-    <t>[1401:1:1408]</t>
-  </si>
-  <si>
-    <t>[1601:1:1608]</t>
-  </si>
-  <si>
-    <t>[1801:1:1808]</t>
-  </si>
-  <si>
-    <t>[2001:1:2008]</t>
-  </si>
-  <si>
-    <t>[2201:1:2208]</t>
-  </si>
-  <si>
-    <t>[2401:1:2408]</t>
-  </si>
-  <si>
-    <t>512</t>
+    <t>[401:1:450]</t>
+  </si>
+  <si>
+    <t>[601:1:650]</t>
+  </si>
+  <si>
+    <t>[801:1:850]</t>
+  </si>
+  <si>
+    <t>[1001:1:1050]</t>
+  </si>
+  <si>
+    <t>[1201:1:1250]</t>
+  </si>
+  <si>
+    <t>[1401:1:1450]</t>
+  </si>
+  <si>
+    <t>[1601:1:1650]</t>
+  </si>
+  <si>
+    <t>[1801:1:1850]</t>
+  </si>
+  <si>
+    <t>[2001:1:2050]</t>
+  </si>
+  <si>
+    <t>[2201:1:2250]</t>
+  </si>
+  <si>
+    <t>[2401:1:2450]</t>
   </si>
 </sst>
 </file>
@@ -983,7 +980,7 @@
   <dimension ref="A1:AMJ12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="14.25"/>
@@ -1072,7 +1069,7 @@
         <v>45</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>98</v>
@@ -1095,7 +1092,7 @@
         <v>45</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>99</v>
@@ -1118,7 +1115,7 @@
         <v>45</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>100</v>
@@ -1141,7 +1138,7 @@
         <v>45</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>101</v>
@@ -1164,7 +1161,7 @@
         <v>45</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>102</v>
@@ -1187,7 +1184,7 @@
         <v>45</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>103</v>
@@ -1210,7 +1207,7 @@
         <v>45</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>104</v>
@@ -1233,7 +1230,7 @@
         <v>45</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>105</v>
@@ -1256,7 +1253,7 @@
         <v>45</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>106</v>
@@ -1279,7 +1276,7 @@
         <v>45</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>107</v>
@@ -1302,7 +1299,7 @@
         <v>45</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>108</v>

--- a/examples/openFAST_config.xlsx
+++ b/examples/openFAST_config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ChineseOpenFastTutorial\AMPoWS\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B201741B-3D7A-477E-91AF-817CA3C1BEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD0B880-5B42-45E3-82B3-8AC1BF615812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="110">
   <si>
     <t>Location</t>
   </si>
@@ -323,37 +323,40 @@
     <t>./OutListParameters.xlsx</t>
   </si>
   <si>
-    <t>[401:1:450]</t>
-  </si>
-  <si>
-    <t>[601:1:650]</t>
-  </si>
-  <si>
-    <t>[801:1:850]</t>
-  </si>
-  <si>
-    <t>[1001:1:1050]</t>
-  </si>
-  <si>
-    <t>[1201:1:1250]</t>
-  </si>
-  <si>
-    <t>[1401:1:1450]</t>
-  </si>
-  <si>
-    <t>[1601:1:1650]</t>
-  </si>
-  <si>
-    <t>[1801:1:1850]</t>
-  </si>
-  <si>
-    <t>[2001:1:2050]</t>
-  </si>
-  <si>
-    <t>[2201:1:2250]</t>
-  </si>
-  <si>
-    <t>[2401:1:2450]</t>
+    <t>700</t>
+  </si>
+  <si>
+    <t>[401:1:499]</t>
+  </si>
+  <si>
+    <t>[601:1:699]</t>
+  </si>
+  <si>
+    <t>[801:1:899]</t>
+  </si>
+  <si>
+    <t>[1001:1:1099]</t>
+  </si>
+  <si>
+    <t>[1201:1:1299]</t>
+  </si>
+  <si>
+    <t>[1401:1:1499]</t>
+  </si>
+  <si>
+    <t>[1601:1:1699]</t>
+  </si>
+  <si>
+    <t>[1801:1:1899]</t>
+  </si>
+  <si>
+    <t>[2001:1:2099]</t>
+  </si>
+  <si>
+    <t>[2201:1:2299]</t>
+  </si>
+  <si>
+    <t>[2401:1:2499]</t>
   </si>
 </sst>
 </file>
@@ -831,7 +834,7 @@
   <dimension ref="A1:AMJ19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="14.25"/>
@@ -980,7 +983,7 @@
   <dimension ref="A1:AMJ12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="14.25"/>
@@ -1069,10 +1072,10 @@
         <v>45</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1092,10 +1095,10 @@
         <v>45</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1115,10 +1118,10 @@
         <v>45</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1138,10 +1141,10 @@
         <v>45</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1161,10 +1164,10 @@
         <v>45</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1184,10 +1187,10 @@
         <v>45</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1207,10 +1210,10 @@
         <v>45</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1230,10 +1233,10 @@
         <v>45</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1253,10 +1256,10 @@
         <v>45</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1276,10 +1279,10 @@
         <v>45</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1299,10 +1302,10 @@
         <v>45</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1317,10 +1320,13 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="16" max="16" width="9.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="6" t="s">

--- a/examples/openFAST_config.xlsx
+++ b/examples/openFAST_config.xlsx
@@ -1,24 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ChineseOpenFastTutorial\AMPoWS\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD0B880-5B42-45E3-82B3-8AC1BF615812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{842DF77F-66AD-4C9D-B8A3-96577C2C0E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
     <sheet name="DLC_List" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -27,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="143">
   <si>
     <t>Location</t>
   </si>
@@ -89,21 +101,39 @@
     <t>Cut-in wind speed</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>Rated wind speed</t>
   </si>
   <si>
+    <t>11.4</t>
+  </si>
+  <si>
     <t>Cut-out wind speed</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>OutSensors</t>
   </si>
   <si>
+    <t>./OutListParameters.xlsx</t>
+  </si>
+  <si>
     <t>OpenFAST</t>
   </si>
   <si>
+    <t>openfast_x64</t>
+  </si>
+  <si>
     <t>turbsim</t>
   </si>
   <si>
+    <t>TurbSim_x64</t>
+  </si>
+  <si>
     <t>DLC Group</t>
   </si>
   <si>
@@ -146,123 +176,270 @@
     <t>BlPitch(3)</t>
   </si>
   <si>
-    <t>NacYaw</t>
-  </si>
-  <si>
-    <t>YawNeut</t>
+    <t>RotSpeed</t>
+  </si>
+  <si>
+    <t>TTDspFA</t>
+  </si>
+  <si>
+    <t>1p2_4</t>
+  </si>
+  <si>
+    <t>NTM</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>[401:1:499]</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>7.1821</t>
+  </si>
+  <si>
+    <t>0.052297</t>
+  </si>
+  <si>
+    <t>1p2_6</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>[601:1:699]</t>
+  </si>
+  <si>
+    <t>7.9391</t>
+  </si>
+  <si>
+    <t>0.11526</t>
+  </si>
+  <si>
+    <t>1p2_8</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>[801:1:899]</t>
+  </si>
+  <si>
+    <t>9.1431</t>
+  </si>
+  <si>
+    <t>0.19602</t>
+  </si>
+  <si>
+    <t>1p2_10</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>[1001:1:1099]</t>
+  </si>
+  <si>
+    <t>11.4289</t>
+  </si>
+  <si>
+    <t>0.31416</t>
+  </si>
+  <si>
+    <t>1p2_12</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>[1201:1:1299]</t>
+  </si>
+  <si>
+    <t>3.8283</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
+    <t>0.31445</t>
+  </si>
+  <si>
+    <t>1p2_14</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>[1401:1:1499]</t>
+  </si>
+  <si>
+    <t>8.6723</t>
+  </si>
+  <si>
+    <t>0.24187</t>
+  </si>
+  <si>
+    <t>1p2_16</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>[1601:1:1699]</t>
+  </si>
+  <si>
+    <t>12.0574</t>
+  </si>
+  <si>
+    <t>0.20547</t>
+  </si>
+  <si>
+    <t>1p_18</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>[1801:1:1899]</t>
+  </si>
+  <si>
+    <t>14.921</t>
+  </si>
+  <si>
+    <t>0.18244</t>
+  </si>
+  <si>
+    <t>1p_20</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>[2001:1:2099]</t>
+  </si>
+  <si>
+    <t>17.4739</t>
+  </si>
+  <si>
+    <t>0.16693</t>
+  </si>
+  <si>
+    <t>1p_22</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>[2201:1:2299]</t>
+  </si>
+  <si>
+    <t>19.9422</t>
+  </si>
+  <si>
+    <t>0.1544</t>
+  </si>
+  <si>
+    <t>1p_24</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>[2401:1:2499]</t>
+  </si>
+  <si>
+    <t>22.3452</t>
+  </si>
+  <si>
+    <t>0.14482</t>
   </si>
   <si>
     <t>1p1</t>
   </si>
   <si>
-    <t>NTM</t>
+    <t>[4:2:24]</t>
+  </si>
+  <si>
+    <t>1p3</t>
+  </si>
+  <si>
+    <t>ETM</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;[5 7]</t>
+  </si>
+  <si>
+    <t>1p4</t>
+  </si>
+  <si>
+    <t>IEC:ECD+R:ECD+R+2.0:ECD+R-2.0</t>
+  </si>
+  <si>
+    <t>1p5</t>
+  </si>
+  <si>
+    <t>IEC:EWSH+12.0</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>impulse</t>
+  </si>
+  <si>
+    <t>IMP:+1/5</t>
+  </si>
+  <si>
+    <t>[v_r-2 v_r v_r+2]</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>ramp</t>
+  </si>
+  <si>
+    <t>RMP:50</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>coh</t>
+  </si>
+  <si>
+    <t>BTS:NTM_URef-%d_turbsim_coh</t>
   </si>
   <si>
     <t>[10 20]</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1p3</t>
-  </si>
-  <si>
-    <t>ETM</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;[5 7]</t>
-  </si>
-  <si>
-    <t>&lt;a&gt;[-2:2:2]</t>
-  </si>
-  <si>
-    <t>1p4</t>
-  </si>
-  <si>
-    <t>IEC:ECD+R:ECD+R+2.0:ECD+R-2.0</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>1p5</t>
-  </si>
-  <si>
-    <t>IEC:EWSH+12.0</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>impulse</t>
-  </si>
-  <si>
-    <t>IMP:+1/5</t>
-  </si>
-  <si>
-    <t>[v_r-2 v_r v_r+2]</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>ramp</t>
-  </si>
-  <si>
-    <t>RMP:50</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>coh</t>
-  </si>
-  <si>
-    <t>BTS:NTM_URef-%d_turbsim_coh</t>
-  </si>
-  <si>
-    <t>TurbSim_x64</t>
-  </si>
-  <si>
-    <t>openfast_x64</t>
-  </si>
-  <si>
-    <t>11.4</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>[4:2:24]</t>
-  </si>
-  <si>
     <t>1p2</t>
   </si>
   <si>
     <t>600</t>
   </si>
   <si>
+    <t>[401:1:406]</t>
+  </si>
+  <si>
     <t>[601:1:606]</t>
   </si>
   <si>
@@ -291,79 +468,13 @@
   </si>
   <si>
     <t>[2401:1:2406]</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>[401:1:406]</t>
-  </si>
-  <si>
-    <t>./OutListParameters.xlsx</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>[401:1:499]</t>
-  </si>
-  <si>
-    <t>[601:1:699]</t>
-  </si>
-  <si>
-    <t>[801:1:899]</t>
-  </si>
-  <si>
-    <t>[1001:1:1099]</t>
-  </si>
-  <si>
-    <t>[1201:1:1299]</t>
-  </si>
-  <si>
-    <t>[1401:1:1499]</t>
-  </si>
-  <si>
-    <t>[1601:1:1699]</t>
-  </si>
-  <si>
-    <t>[1801:1:1899]</t>
-  </si>
-  <si>
-    <t>[2001:1:2099]</t>
-  </si>
-  <si>
-    <t>[2201:1:2299]</t>
-  </si>
-  <si>
-    <t>[2401:1:2499]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -388,6 +499,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="CMU Sans Serif"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="CMU Sans Serif"/>
       <family val="2"/>
       <charset val="1"/>
@@ -439,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -449,6 +568,9 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -834,7 +956,7 @@
   <dimension ref="A1:AMJ19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="14.25"/>
@@ -929,47 +1051,47 @@
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15">
       <c r="A14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15">
       <c r="A19" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -983,20 +1105,22 @@
   <dimension ref="A1:AMJ12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="4"/>
-    <col min="2" max="2" width="32.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="12.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="18.625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="22.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.25" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.375" style="1" customWidth="1"/>
     <col min="13" max="13" width="15.75" style="1" customWidth="1"/>
     <col min="14" max="14" width="11.5" style="1"/>
@@ -1007,305 +1131,470 @@
   <sheetData>
     <row r="1" spans="1:16" s="7" customFormat="1">
       <c r="A1" s="6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="4" t="s">
-        <v>76</v>
+      <c r="A2" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>99</v>
+        <v>53</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="4" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>100</v>
+        <v>59</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="4" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>101</v>
+        <v>64</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>102</v>
+        <v>69</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>103</v>
+      <c r="P6" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>104</v>
+      <c r="P7" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>105</v>
+      <c r="P8" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>106</v>
+      <c r="P9" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>107</v>
+      <c r="P10" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>108</v>
+      <c r="P11" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>109</v>
+      <c r="P12" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1609,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1330,78 +1619,74 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>40</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="4" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="4" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="1"/>
@@ -1412,71 +1697,67 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="4" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="4" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="1" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="4" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="5"/>
@@ -1488,29 +1769,29 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="4" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="5"/>
@@ -1522,27 +1803,27 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="4" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="5"/>
@@ -1554,27 +1835,27 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="4" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
@@ -1586,20 +1867,20 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="4" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="4" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1612,289 +1893,693 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="4" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="4" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="4" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="4" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="4" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="4" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="4" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="4" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="4" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="4" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="4" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="4" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="4" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="4" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="4" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="4" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4" t="s">
-        <v>87</v>
-      </c>
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8BC822-B445-4DB1-AF17-B6DCF443C989}">
+  <dimension ref="A1:N17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/examples/openFAST_config.xlsx
+++ b/examples/openFAST_config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25915"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ChineseOpenFastTutorial\AMPoWS\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{842DF77F-66AD-4C9D-B8A3-96577C2C0E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABB1A185-A433-44D8-8C2A-CD434A893B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -197,277 +197,277 @@
     <t>A</t>
   </si>
   <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>[401:1:499]</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>7.1821</t>
+  </si>
+  <si>
+    <t>0.052297</t>
+  </si>
+  <si>
+    <t>1p2_6</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>[601:1:699]</t>
+  </si>
+  <si>
+    <t>7.9391</t>
+  </si>
+  <si>
+    <t>0.11526</t>
+  </si>
+  <si>
+    <t>1p2_8</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>[801:1:899]</t>
+  </si>
+  <si>
+    <t>9.1431</t>
+  </si>
+  <si>
+    <t>0.19602</t>
+  </si>
+  <si>
+    <t>1p2_10</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>[1001:1:1099]</t>
+  </si>
+  <si>
+    <t>11.4289</t>
+  </si>
+  <si>
+    <t>0.31416</t>
+  </si>
+  <si>
+    <t>1p2_12</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>[1201:1:1299]</t>
+  </si>
+  <si>
+    <t>3.8283</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
+    <t>0.31445</t>
+  </si>
+  <si>
+    <t>1p2_14</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>[1401:1:1499]</t>
+  </si>
+  <si>
+    <t>8.6723</t>
+  </si>
+  <si>
+    <t>0.24187</t>
+  </si>
+  <si>
+    <t>1p2_16</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>[1601:1:1699]</t>
+  </si>
+  <si>
+    <t>12.0574</t>
+  </si>
+  <si>
+    <t>0.20547</t>
+  </si>
+  <si>
+    <t>1p_18</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>[1801:1:1899]</t>
+  </si>
+  <si>
+    <t>14.921</t>
+  </si>
+  <si>
+    <t>0.18244</t>
+  </si>
+  <si>
+    <t>1p_20</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>[2001:1:2099]</t>
+  </si>
+  <si>
+    <t>17.4739</t>
+  </si>
+  <si>
+    <t>0.16693</t>
+  </si>
+  <si>
+    <t>1p_22</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>[2201:1:2299]</t>
+  </si>
+  <si>
+    <t>19.9422</t>
+  </si>
+  <si>
+    <t>0.1544</t>
+  </si>
+  <si>
+    <t>1p_24</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>[2401:1:2499]</t>
+  </si>
+  <si>
+    <t>22.3452</t>
+  </si>
+  <si>
+    <t>0.14482</t>
+  </si>
+  <si>
+    <t>1p1</t>
+  </si>
+  <si>
+    <t>[4:2:24]</t>
+  </si>
+  <si>
+    <t>1p3</t>
+  </si>
+  <si>
+    <t>ETM</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;[5 7]</t>
+  </si>
+  <si>
+    <t>1p4</t>
+  </si>
+  <si>
+    <t>IEC:ECD+R:ECD+R+2.0:ECD+R-2.0</t>
+  </si>
+  <si>
+    <t>1p5</t>
+  </si>
+  <si>
+    <t>IEC:EWSH+12.0</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>impulse</t>
+  </si>
+  <si>
+    <t>IMP:+1/5</t>
+  </si>
+  <si>
+    <t>[v_r-2 v_r v_r+2]</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>ramp</t>
+  </si>
+  <si>
+    <t>RMP:50</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>coh</t>
+  </si>
+  <si>
+    <t>BTS:NTM_URef-%d_turbsim_coh</t>
+  </si>
+  <si>
+    <t>[10 20]</t>
+  </si>
+  <si>
+    <t>1p2</t>
+  </si>
+  <si>
+    <t>[401:1:406]</t>
+  </si>
+  <si>
+    <t>[601:1:606]</t>
+  </si>
+  <si>
+    <t>[801:1:806]</t>
+  </si>
+  <si>
+    <t>[1001:1:1006]</t>
+  </si>
+  <si>
+    <t>[1201:1:1206]</t>
+  </si>
+  <si>
+    <t>[1401:1:1406]</t>
+  </si>
+  <si>
+    <t>[1601:1:1606]</t>
+  </si>
+  <si>
+    <t>[1801:1:1806]</t>
+  </si>
+  <si>
+    <t>[2001:1:2006]</t>
+  </si>
+  <si>
+    <t>[2201:1:2206]</t>
+  </si>
+  <si>
+    <t>[2401:1:2406]</t>
+  </si>
+  <si>
     <t>700</t>
-  </si>
-  <si>
-    <t>[401:1:499]</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>7.1821</t>
-  </si>
-  <si>
-    <t>0.052297</t>
-  </si>
-  <si>
-    <t>1p2_6</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>[601:1:699]</t>
-  </si>
-  <si>
-    <t>7.9391</t>
-  </si>
-  <si>
-    <t>0.11526</t>
-  </si>
-  <si>
-    <t>1p2_8</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>[801:1:899]</t>
-  </si>
-  <si>
-    <t>9.1431</t>
-  </si>
-  <si>
-    <t>0.19602</t>
-  </si>
-  <si>
-    <t>1p2_10</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>[1001:1:1099]</t>
-  </si>
-  <si>
-    <t>11.4289</t>
-  </si>
-  <si>
-    <t>0.31416</t>
-  </si>
-  <si>
-    <t>1p2_12</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>[1201:1:1299]</t>
-  </si>
-  <si>
-    <t>3.8283</t>
-  </si>
-  <si>
-    <t>12.1</t>
-  </si>
-  <si>
-    <t>0.31445</t>
-  </si>
-  <si>
-    <t>1p2_14</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>[1401:1:1499]</t>
-  </si>
-  <si>
-    <t>8.6723</t>
-  </si>
-  <si>
-    <t>0.24187</t>
-  </si>
-  <si>
-    <t>1p2_16</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>[1601:1:1699]</t>
-  </si>
-  <si>
-    <t>12.0574</t>
-  </si>
-  <si>
-    <t>0.20547</t>
-  </si>
-  <si>
-    <t>1p_18</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>[1801:1:1899]</t>
-  </si>
-  <si>
-    <t>14.921</t>
-  </si>
-  <si>
-    <t>0.18244</t>
-  </si>
-  <si>
-    <t>1p_20</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>[2001:1:2099]</t>
-  </si>
-  <si>
-    <t>17.4739</t>
-  </si>
-  <si>
-    <t>0.16693</t>
-  </si>
-  <si>
-    <t>1p_22</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>[2201:1:2299]</t>
-  </si>
-  <si>
-    <t>19.9422</t>
-  </si>
-  <si>
-    <t>0.1544</t>
-  </si>
-  <si>
-    <t>1p_24</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>[2401:1:2499]</t>
-  </si>
-  <si>
-    <t>22.3452</t>
-  </si>
-  <si>
-    <t>0.14482</t>
-  </si>
-  <si>
-    <t>1p1</t>
-  </si>
-  <si>
-    <t>[4:2:24]</t>
-  </si>
-  <si>
-    <t>1p3</t>
-  </si>
-  <si>
-    <t>ETM</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;[5 7]</t>
-  </si>
-  <si>
-    <t>1p4</t>
-  </si>
-  <si>
-    <t>IEC:ECD+R:ECD+R+2.0:ECD+R-2.0</t>
-  </si>
-  <si>
-    <t>1p5</t>
-  </si>
-  <si>
-    <t>IEC:EWSH+12.0</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>impulse</t>
-  </si>
-  <si>
-    <t>IMP:+1/5</t>
-  </si>
-  <si>
-    <t>[v_r-2 v_r v_r+2]</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>ramp</t>
-  </si>
-  <si>
-    <t>RMP:50</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>coh</t>
-  </si>
-  <si>
-    <t>BTS:NTM_URef-%d_turbsim_coh</t>
-  </si>
-  <si>
-    <t>[10 20]</t>
-  </si>
-  <si>
-    <t>1p2</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>[401:1:406]</t>
-  </si>
-  <si>
-    <t>[601:1:606]</t>
-  </si>
-  <si>
-    <t>[801:1:806]</t>
-  </si>
-  <si>
-    <t>[1001:1:1006]</t>
-  </si>
-  <si>
-    <t>[1201:1:1206]</t>
-  </si>
-  <si>
-    <t>[1401:1:1406]</t>
-  </si>
-  <si>
-    <t>[1601:1:1606]</t>
-  </si>
-  <si>
-    <t>[1801:1:1806]</t>
-  </si>
-  <si>
-    <t>[2001:1:2006]</t>
-  </si>
-  <si>
-    <t>[2201:1:2206]</t>
-  </si>
-  <si>
-    <t>[2401:1:2406]</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -570,7 +570,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1105,7 +1104,7 @@
   <dimension ref="A1:AMJ12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H2" sqref="H2:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="14.25"/>
@@ -1180,7 +1179,7 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1910,11 +1909,11 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="4" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1936,11 +1935,11 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="4" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1962,11 +1961,11 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="4" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1988,11 +1987,11 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="4" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2014,11 +2013,11 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="4" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2040,11 +2039,11 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="4" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2066,11 +2065,11 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="4" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2092,11 +2091,11 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="4" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2118,11 +2117,11 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="4" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2144,11 +2143,11 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="4" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2170,11 +2169,11 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="4" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2255,7 +2254,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="4" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
@@ -2291,7 +2290,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="4" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
@@ -2327,7 +2326,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="4" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
@@ -2357,7 +2356,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="4" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
@@ -2387,7 +2386,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="4" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4" t="s">
@@ -2417,7 +2416,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="4" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4" t="s">
@@ -2447,7 +2446,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="4" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4" t="s">
@@ -2477,7 +2476,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="4" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
@@ -2507,7 +2506,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="4" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
@@ -2537,7 +2536,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="4" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
@@ -2567,7 +2566,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="4" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4" t="s">
